--- a/data/trans_orig/P13A_1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P13A_1_2023-Edad-trans_orig.xlsx
@@ -750,16 +750,16 @@
         <v>16059</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8766</v>
+        <v>9223</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>19847</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8091585224493748</v>
+        <v>0.8091585224493749</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4416710802375308</v>
+        <v>0.4647000983755443</v>
       </c>
       <c r="P4" s="6" t="n">
         <v>1</v>
@@ -771,16 +771,16 @@
         <v>16059</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8766</v>
+        <v>9223</v>
       </c>
       <c r="T4" s="5" t="n">
         <v>19847</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8091585224493748</v>
+        <v>0.8091585224493749</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4416710802375308</v>
+        <v>0.4647000983755443</v>
       </c>
       <c r="W4" s="6" t="n">
         <v>1</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11071</v>
+        <v>10624</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1908414775506252</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5577989238712401</v>
+        <v>0.5352999016244556</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11071</v>
+        <v>10624</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1908414775506252</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5577989238712401</v>
+        <v>0.5352999016244556</v>
       </c>
     </row>
     <row r="6">
@@ -935,16 +935,16 @@
         <v>8924</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5574</v>
+        <v>5078</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>10003</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.8921518061509461</v>
+        <v>0.8921518061509459</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5571891016219066</v>
+        <v>0.5076181073155985</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -956,16 +956,16 @@
         <v>14327</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10231</v>
+        <v>10641</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>15406</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9299791893524474</v>
+        <v>0.9299791893524475</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6640731897391312</v>
+        <v>0.6907359542653995</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4429</v>
+        <v>4925</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.107848193849054</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.442810898378092</v>
+        <v>0.492381892684397</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5175</v>
+        <v>4765</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0700208106475526</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3359268102608674</v>
+        <v>0.3092640457346005</v>
       </c>
     </row>
     <row r="9">
@@ -1136,7 +1136,7 @@
         <v>18743</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15308</v>
+        <v>14858</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>19652</v>
@@ -1145,7 +1145,7 @@
         <v>0.9537518656376702</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7789586392617547</v>
+        <v>0.7560577176035322</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1157,7 +1157,7 @@
         <v>25865</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22034</v>
+        <v>21920</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>26774</v>
@@ -1166,7 +1166,7 @@
         <v>0.9660543856095887</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8229546528615963</v>
+        <v>0.8187029921325464</v>
       </c>
       <c r="W10" s="6" t="n">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4344</v>
+        <v>4794</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04624813436232974</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.221041360738245</v>
+        <v>0.2439422823964698</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>4740</v>
+        <v>4854</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03394561439041128</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1770453471384046</v>
+        <v>0.1812970078674538</v>
       </c>
     </row>
     <row r="12">
@@ -1337,16 +1337,16 @@
         <v>41032</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37554</v>
+        <v>37458</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>42479</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.9659244820014313</v>
+        <v>0.9659244820014311</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.884067148239954</v>
+        <v>0.8817988906023498</v>
       </c>
       <c r="P13" s="6" t="n">
         <v>1</v>
@@ -1358,7 +1358,7 @@
         <v>48423</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45335</v>
+        <v>44755</v>
       </c>
       <c r="T13" s="5" t="n">
         <v>49870</v>
@@ -1367,7 +1367,7 @@
         <v>0.9709748929932748</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.909063175750672</v>
+        <v>0.8974427886407403</v>
       </c>
       <c r="W13" s="6" t="n">
         <v>1</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4925</v>
+        <v>5021</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03407551799856866</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.115932851760045</v>
+        <v>0.1182011093976503</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4535</v>
+        <v>5115</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02902510700672522</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09093682424932761</v>
+        <v>0.1025572113592597</v>
       </c>
     </row>
     <row r="15">
@@ -1538,7 +1538,7 @@
         <v>32439</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30431</v>
+        <v>30110</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>33328</v>
@@ -1547,7 +1547,7 @@
         <v>0.9733261215845392</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9130856474946444</v>
+        <v>0.9034577508293327</v>
       </c>
       <c r="P16" s="6" t="n">
         <v>1</v>
@@ -1559,7 +1559,7 @@
         <v>43455</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>41204</v>
+        <v>40986</v>
       </c>
       <c r="T16" s="5" t="n">
         <v>44344</v>
@@ -1568,7 +1568,7 @@
         <v>0.9799526616821396</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9291985919905229</v>
+        <v>0.9242791129327286</v>
       </c>
       <c r="W16" s="6" t="n">
         <v>1</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2897</v>
+        <v>3218</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02667387841546091</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08691435250535549</v>
+        <v>0.09654224917066778</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3140</v>
+        <v>3358</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02004733831786041</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07080140800947703</v>
+        <v>0.07572088706727131</v>
       </c>
     </row>
     <row r="18">
@@ -1908,16 +1908,16 @@
         <v>20203</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17684</v>
+        <v>17560</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>21377</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9450867058796577</v>
+        <v>0.9450867058796579</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8272514941364638</v>
+        <v>0.8214363591913051</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>25145</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>22385</v>
+        <v>22780</v>
       </c>
       <c r="T22" s="5" t="n">
         <v>26319</v>
@@ -1938,7 +1938,7 @@
         <v>0.9553974957032717</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8505332298595798</v>
+        <v>0.8655228748181317</v>
       </c>
       <c r="W22" s="6" t="n">
         <v>1</v>
@@ -1974,16 +1974,16 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3693</v>
+        <v>3817</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.05491329412034215</v>
+        <v>0.05491329412034216</v>
       </c>
       <c r="O23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1727485058635362</v>
+        <v>0.1785636408086952</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -1995,16 +1995,16 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3934</v>
+        <v>3539</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.04460250429672832</v>
+        <v>0.04460250429672833</v>
       </c>
       <c r="V23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1494667701404215</v>
+        <v>0.1344771251818687</v>
       </c>
     </row>
     <row r="24">
@@ -2109,19 +2109,19 @@
         <v>155080</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>146215</v>
+        <v>145845</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>159889</v>
+        <v>159856</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.9435065701824737</v>
+        <v>0.9435065701824735</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8895702521943534</v>
+        <v>0.8873155270420866</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9727628384682264</v>
+        <v>0.9725621456740506</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>261</v>
@@ -2130,19 +2130,19 @@
         <v>194989</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>185904</v>
+        <v>185586</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>199719</v>
+        <v>200013</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9545434187860116</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9100689901674069</v>
+        <v>0.9085105872239492</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9776950480371631</v>
+        <v>0.9791373958151877</v>
       </c>
     </row>
     <row r="26">
@@ -2172,19 +2172,19 @@
         <v>9286</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4477</v>
+        <v>4510</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18151</v>
+        <v>18521</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05649342981752645</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02723716153177381</v>
+        <v>0.02743785432594939</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1104297478056466</v>
+        <v>0.1126844729579134</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>10</v>
@@ -2193,19 +2193,19 @@
         <v>9286</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4556</v>
+        <v>4262</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>18371</v>
+        <v>18689</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.04545658121398839</v>
+        <v>0.04545658121398841</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02230495196283663</v>
+        <v>0.02086260418481223</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08993100983259281</v>
+        <v>0.09148941277605081</v>
       </c>
     </row>
     <row r="27">
